--- a/output/fit_clients/fit_round_240.xlsx
+++ b/output/fit_clients/fit_round_240.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2198780716.493108</v>
+        <v>2018305209.292215</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07856327157748762</v>
+        <v>0.1081269118423134</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03084996840131072</v>
+        <v>0.02872307765946385</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1099390380.644601</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2584727538.650342</v>
+        <v>2087971676.789212</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1483272020595501</v>
+        <v>0.1767419766449636</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03555394317122766</v>
+        <v>0.0449662187773121</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1292363899.930815</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3213388121.43473</v>
+        <v>4528657008.692627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.125082753204188</v>
+        <v>0.1006131575641509</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02522443948242841</v>
+        <v>0.02815742555582725</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>87</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1606694019.157814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3838508602.958201</v>
+        <v>3203231066.055021</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08267194544390215</v>
+        <v>0.1073710470697085</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03511558620874425</v>
+        <v>0.04571544518099215</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1919254315.819592</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1982303035.047214</v>
+        <v>2377395886.492667</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1043935104472729</v>
+        <v>0.1259011727505915</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04129553766809532</v>
+        <v>0.04731210880694659</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>991151549.0240153</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2273457540.466094</v>
+        <v>2121593124.898762</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08815766993015098</v>
+        <v>0.06689281916257021</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04236801653704265</v>
+        <v>0.04201697220905733</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1136728805.062486</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3072905372.443039</v>
+        <v>2457409700.927384</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1378252001870896</v>
+        <v>0.1431678299284044</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02808923910766734</v>
+        <v>0.02837412072397181</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>77</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1536452751.176889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1847421968.456711</v>
+        <v>2203795113.220701</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1730986498877237</v>
+        <v>0.164560931340873</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02456198416004301</v>
+        <v>0.0310177777919676</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>923711031.9982384</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5209533572.628446</v>
+        <v>3624230222.126369</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1788411806227555</v>
+        <v>0.1762797953984855</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03998362979881831</v>
+        <v>0.04734374685423441</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>101</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2604766901.82029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2940013664.564952</v>
+        <v>4019873905.282447</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1189618889106662</v>
+        <v>0.1673113030199099</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0398777681435358</v>
+        <v>0.03405057810664714</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>100</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1470006771.036357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2479264209.779276</v>
+        <v>2263448945.389749</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1927164489839382</v>
+        <v>0.1322392558979102</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04478834086432233</v>
+        <v>0.04060357864880843</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1239632075.206313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4443635684.406229</v>
+        <v>5126914486.163661</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09039073330187557</v>
+        <v>0.09213597793361678</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02694753806753898</v>
+        <v>0.02573204823031826</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>81</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2221817874.59488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3312637569.654849</v>
+        <v>2964658143.17376</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1885887556333926</v>
+        <v>0.1138422524407542</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04402275323673992</v>
+        <v>0.02934341321018837</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1656318796.623538</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1582986050.812041</v>
+        <v>1667045946.130245</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06784869230875561</v>
+        <v>0.06992303366501448</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03036493543396138</v>
+        <v>0.0435016884398611</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>791493129.713044</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2136910060.37441</v>
+        <v>2038556413.957743</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0832731710526879</v>
+        <v>0.1109779508201069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05002519487454878</v>
+        <v>0.03531869133404014</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1068455093.429889</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4750257991.476058</v>
+        <v>3838980657.709602</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1319680536123004</v>
+        <v>0.1177653865776955</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04030449900021333</v>
+        <v>0.03574375516458229</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>70</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2375128993.232537</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2462083322.398107</v>
+        <v>2802142983.833445</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1387981949148948</v>
+        <v>0.1489374034573296</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02560072440472778</v>
+        <v>0.02934117626496097</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>79</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1231041730.396566</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1241697895.795673</v>
+        <v>847574272.3563175</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1776395844564423</v>
+        <v>0.1253170994173633</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0202507806910542</v>
+        <v>0.02197611971292985</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>620849035.959811</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1964974644.405354</v>
+        <v>2626451495.446405</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1178207492822301</v>
+        <v>0.1017671908071027</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02160107723687593</v>
+        <v>0.02797196307599373</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>982487352.2810001</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1832609206.079485</v>
+        <v>2086915944.822989</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07728743069584035</v>
+        <v>0.06604007120450289</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03527580995213138</v>
+        <v>0.03098859640747664</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>916304654.9928204</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3290327432.568563</v>
+        <v>3751460914.749852</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1063713365834836</v>
+        <v>0.1397518490208961</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04528759033361936</v>
+        <v>0.05225771768849275</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1645163760.422428</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1315328822.806347</v>
+        <v>1117782922.140982</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1831394025578988</v>
+        <v>0.1702220529731812</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04237660873772676</v>
+        <v>0.03710067244248381</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>657664428.4423258</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2908996521.979126</v>
+        <v>3838506992.859581</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1277482528969542</v>
+        <v>0.1376476704263211</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03710244419992634</v>
+        <v>0.03085770429814677</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>70</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1454498302.32221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1382411876.867549</v>
+        <v>1144732661.032713</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08625530609091497</v>
+        <v>0.09654758454467592</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02578755530474222</v>
+        <v>0.0238886440318954</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>691205914.442782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>878912462.4892681</v>
+        <v>1455703472.384991</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08769259075182159</v>
+        <v>0.120308331213695</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03300826917619647</v>
+        <v>0.03054954642737462</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>439456173.6611171</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4073212662.276896</v>
+        <v>4177315695.461276</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1247573760669488</v>
+        <v>0.1134711408902452</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0264925215353672</v>
+        <v>0.01788838348794388</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2036606337.669436</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3190855344.550742</v>
+        <v>3617870724.531055</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1359669531880026</v>
+        <v>0.1233958552677438</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04261521773170245</v>
+        <v>0.04992936561559483</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>79</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1595427700.079804</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5412908639.800688</v>
+        <v>5176844775.683245</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0973590727311395</v>
+        <v>0.1280355411529975</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03796576206238947</v>
+        <v>0.03393451478849182</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>107</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2706454238.823318</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1909725928.776877</v>
+        <v>2351009999.091292</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1012392393072707</v>
+        <v>0.08519467995754859</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02585503961063027</v>
+        <v>0.03092344833899007</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>954862991.5571321</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1145442677.74979</v>
+        <v>1292068044.01243</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07019623959662191</v>
+        <v>0.06849474462992534</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0518911055262317</v>
+        <v>0.03337356890719518</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>572721303.1611747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1370090891.922568</v>
+        <v>1817776083.978966</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08890650896708265</v>
+        <v>0.1098732567221523</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0252056808244655</v>
+        <v>0.03053840114654501</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>685045487.4104681</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2756913089.321267</v>
+        <v>2626591802.668119</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1658254699922624</v>
+        <v>0.1913910681597061</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05150183771387112</v>
+        <v>0.04005199355727927</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>73</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1378456560.981682</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1486455489.834315</v>
+        <v>1176629723.871157</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1054091659120692</v>
+        <v>0.07440780612726788</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01809332339179997</v>
+        <v>0.0195885026645965</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>743227702.9861835</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1327356586.961385</v>
+        <v>1312813296.652516</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1158326986238306</v>
+        <v>0.08102547413003634</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02737598504630237</v>
+        <v>0.03484578729248363</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>663678240.2679051</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2444630032.725087</v>
+        <v>2520410847.211992</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1535781923462248</v>
+        <v>0.1493031185302927</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02328981838704536</v>
+        <v>0.02363962688953221</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>59</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1222315042.744</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2413441603.829684</v>
+        <v>2342297383.455276</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07598174246970109</v>
+        <v>0.1001130005619039</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0419530093807525</v>
+        <v>0.02825802271731809</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>62</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1206720886.051423</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1511831009.682929</v>
+        <v>2071122927.726272</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07846239876968368</v>
+        <v>0.1143320836837671</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03937292139220157</v>
+        <v>0.03739279680985241</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>755915552.4160434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1338509650.64345</v>
+        <v>1771253778.302994</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1776361467240965</v>
+        <v>0.1369708687310427</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02737264277858353</v>
+        <v>0.02219423967751143</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>669254920.2575258</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1805707647.937335</v>
+        <v>1718720560.637265</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1232209877415972</v>
+        <v>0.1064562405746993</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04518493538430359</v>
+        <v>0.05799043421763781</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>902853713.6382025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2418278520.854955</v>
+        <v>2326332501.880335</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1417963207066688</v>
+        <v>0.111857823936564</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03775234889282957</v>
+        <v>0.03629172200967642</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>58</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1209139293.662619</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3621216552.672276</v>
+        <v>3637265400.245715</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1251016016725185</v>
+        <v>0.109997736701251</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03010413135276014</v>
+        <v>0.0318324808514559</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1810608279.51593</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2892102848.949899</v>
+        <v>2684192177.488711</v>
       </c>
       <c r="F43" t="n">
-        <v>0.159132712619866</v>
+        <v>0.1680869371694823</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0228160904971195</v>
+        <v>0.02100948106111106</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>83</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1446051433.681958</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1862456580.496095</v>
+        <v>1922023966.934279</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08475045510862933</v>
+        <v>0.08762475705463306</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03152138890269846</v>
+        <v>0.03314249504685587</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>931228369.1246247</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2482760505.999535</v>
+        <v>1813377987.589368</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1438726494104912</v>
+        <v>0.1876075950351368</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04876227883300331</v>
+        <v>0.03808831189945967</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1241380292.512096</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5202348702.58949</v>
+        <v>4698145919.513168</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1309285367819535</v>
+        <v>0.14863136451281</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04946533186523517</v>
+        <v>0.04497354751953194</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>86</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2601174389.666893</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4031696876.667988</v>
+        <v>3494891601.4683</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1408617387114985</v>
+        <v>0.2037982395712979</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04876243976377165</v>
+        <v>0.05768106383660749</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>65</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2015848439.236653</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3414675953.934924</v>
+        <v>4042403818.994124</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0778506443954891</v>
+        <v>0.07397370522816134</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03549305359275408</v>
+        <v>0.02532674267559292</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1707338045.371837</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1371412293.327496</v>
+        <v>1820130469.166349</v>
       </c>
       <c r="F49" t="n">
-        <v>0.141381630093988</v>
+        <v>0.1799914160146916</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03163512626708326</v>
+        <v>0.03244989734524822</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>685706198.6595215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3655249353.40821</v>
+        <v>2710769921.237057</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1333960692411764</v>
+        <v>0.1506596386480501</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03823124603857962</v>
+        <v>0.04976887229282134</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>82</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1827624689.909274</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1524211377.267617</v>
+        <v>1098663984.006417</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1191440437553151</v>
+        <v>0.1199475180871582</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03552412749986984</v>
+        <v>0.05230060786666613</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>762105687.623666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3237292873.086582</v>
+        <v>3217349915.217833</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1000405521599639</v>
+        <v>0.1314976801829187</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04023901622061909</v>
+        <v>0.05224402882630221</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>99</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1618646537.905421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3230573825.931183</v>
+        <v>3698460369.478398</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1579130810280304</v>
+        <v>0.1618020060156017</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03010040529352799</v>
+        <v>0.0263078737829924</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>68</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1615286929.436593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3138718715.938801</v>
+        <v>3375232857.042968</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1160598109567395</v>
+        <v>0.1564303086801853</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04199666566734706</v>
+        <v>0.04928379641400824</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>79</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1569359354.409875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4278537079.949435</v>
+        <v>3776460194.034161</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1582201917133298</v>
+        <v>0.2066857212609577</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03208981669707645</v>
+        <v>0.02312277355639633</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>67</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2139268527.167873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1428616738.928361</v>
+        <v>1279188274.489394</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1076879016122681</v>
+        <v>0.1242785651989196</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03573029239002583</v>
+        <v>0.05208616035412238</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>714308422.2588229</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3825198850.963043</v>
+        <v>4140852458.202068</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1123657173823925</v>
+        <v>0.1636659386428235</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02268115229320703</v>
+        <v>0.0240594142663556</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>76</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1912599499.157027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1618273452.107507</v>
+        <v>1464643952.666788</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1325738452934512</v>
+        <v>0.1960961664198874</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02611007853836839</v>
+        <v>0.0295928591539476</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>809136746.3876839</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4311663628.479233</v>
+        <v>4379611872.210938</v>
       </c>
       <c r="F59" t="n">
-        <v>0.109391796774084</v>
+        <v>0.1061691394664629</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03423032658261322</v>
+        <v>0.04405328017591068</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2155831775.152759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2756314978.007692</v>
+        <v>3595739152.621744</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1892945141563803</v>
+        <v>0.1451255441171205</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02270383237330429</v>
+        <v>0.02454261135629541</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1378157533.782943</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3126673947.204963</v>
+        <v>2174986840.653548</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1114544940244897</v>
+        <v>0.1341526400377647</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02472405460689707</v>
+        <v>0.02500741698665572</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>82</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1563336942.119478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1984693349.325175</v>
+        <v>1743861594.94447</v>
       </c>
       <c r="F62" t="n">
-        <v>0.141322415841577</v>
+        <v>0.147888536184442</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04001524909877182</v>
+        <v>0.04312931510911109</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>992346730.4407569</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4899338626.103658</v>
+        <v>5087280264.224222</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08413959638882075</v>
+        <v>0.1011171919819242</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03496803653490919</v>
+        <v>0.04315742131264681</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>68</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2449669335.288214</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5194279642.894973</v>
+        <v>5420228763.737641</v>
       </c>
       <c r="F64" t="n">
-        <v>0.138389583898258</v>
+        <v>0.174462962340441</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03336857667598372</v>
+        <v>0.02972947775037542</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>75</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2597139941.301409</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5147683217.811322</v>
+        <v>5944092703.789314</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1150017852204942</v>
+        <v>0.1157296147298923</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03045687785908409</v>
+        <v>0.0275349453447656</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>86</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2573841558.991728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5025488911.580801</v>
+        <v>5472255129.554955</v>
       </c>
       <c r="F66" t="n">
-        <v>0.100685378638926</v>
+        <v>0.1067518333456664</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04474591935714117</v>
+        <v>0.03802172248236228</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>70</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2512744484.309742</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2864493884.729563</v>
+        <v>2200931856.208598</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07849748878212554</v>
+        <v>0.09804153755477296</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0416220920686215</v>
+        <v>0.04149737938447601</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>78</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1432246972.12416</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4992073329.848378</v>
+        <v>5328243452.078971</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1214668731781316</v>
+        <v>0.1494768430094982</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04412953644620905</v>
+        <v>0.03920830414387668</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2496036720.823884</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1926528596.576217</v>
+        <v>1794648678.035303</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1275590406085925</v>
+        <v>0.1479951335795424</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05522299095097557</v>
+        <v>0.04016487916019711</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>963264293.7196157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3470655852.486876</v>
+        <v>2945314531.433589</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06460412910513375</v>
+        <v>0.07695654554498384</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04449164779110151</v>
+        <v>0.0432957770703935</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>68</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1735327933.924066</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3911233545.445642</v>
+        <v>5100966658.68669</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1728310362971632</v>
+        <v>0.1602917159018707</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02523649896525137</v>
+        <v>0.0210412622904341</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>88</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1955616797.120041</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1369780148.273119</v>
+        <v>1466805715.110592</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07953528303729498</v>
+        <v>0.1085046583839736</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03773598231493473</v>
+        <v>0.03692471000816797</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>684890122.1355458</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3407721299.146577</v>
+        <v>2189184838.282212</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08151133929157058</v>
+        <v>0.09601699814659788</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04061899028530608</v>
+        <v>0.03461953823998708</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>92</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1703860608.218943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3442378386.952525</v>
+        <v>3241184226.819955</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1676981035105759</v>
+        <v>0.175311291040014</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02446752571064618</v>
+        <v>0.02428570777023837</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>82</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1721189220.64252</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2248813862.271765</v>
+        <v>1998525754.369907</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1418591847795136</v>
+        <v>0.1411560268714978</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03546512765164542</v>
+        <v>0.02678908983584847</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1124406871.936515</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4813839780.741235</v>
+        <v>4611079706.314395</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08200709235943032</v>
+        <v>0.1191768605959364</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03050684244483329</v>
+        <v>0.02909891639656337</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>56</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2406919909.217514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2248985485.537933</v>
+        <v>1970809142.617678</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1136298471710804</v>
+        <v>0.1520049391870353</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02078955856359853</v>
+        <v>0.03132457203588696</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1124492841.08393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4054670330.998034</v>
+        <v>4437387794.819011</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1216248952352701</v>
+        <v>0.1040542918302539</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05445254814292455</v>
+        <v>0.0501697997152353</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>84</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2027335127.315788</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1800886764.072575</v>
+        <v>1255378848.921845</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1696001242105008</v>
+        <v>0.1737555459214355</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03015147719212694</v>
+        <v>0.03559636815290858</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>900443468.856835</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5434052231.611151</v>
+        <v>4939073353.115237</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08182393092071838</v>
+        <v>0.07386518589597692</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03357866495784396</v>
+        <v>0.03411326492779658</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>50</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2717026186.57738</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3772520415.651059</v>
+        <v>4629456995.42079</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0993864168925938</v>
+        <v>0.100702320938036</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02333266731615838</v>
+        <v>0.0252904006790047</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1886260162.589136</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5026194817.09767</v>
+        <v>5655851183.398966</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2019177961597387</v>
+        <v>0.20925376838627</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02398201424982513</v>
+        <v>0.01924260285164002</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2513097391.036229</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1890925653.227622</v>
+        <v>2186215083.108198</v>
       </c>
       <c r="F83" t="n">
-        <v>0.102516819086391</v>
+        <v>0.1395778094151986</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03718479151230692</v>
+        <v>0.03899870900053522</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>945462798.3594402</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2390095170.463483</v>
+        <v>1847362163.781118</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1054068333058498</v>
+        <v>0.0997172585333939</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05011473866402547</v>
+        <v>0.03399091115680019</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1195047533.077336</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2411533277.38469</v>
+        <v>3686406519.796391</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1277167491892531</v>
+        <v>0.170141520320142</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05083084116337739</v>
+        <v>0.03635521661667961</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>91</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1205766633.853435</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1710276636.285506</v>
+        <v>2071282065.580089</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1097805437537704</v>
+        <v>0.1232388026887362</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02591826369568734</v>
+        <v>0.0232167000129907</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>31</v>
-      </c>
-      <c r="J86" t="n">
-        <v>855138305.4798512</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1148388623.461704</v>
+        <v>1220373100.258202</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1319149085416713</v>
+        <v>0.1353544520389481</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03015206591753451</v>
+        <v>0.03595307378054176</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>574194354.0723325</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3098603039.193535</v>
+        <v>3120668544.872112</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1235316222255778</v>
+        <v>0.1265680142243673</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0305129856964734</v>
+        <v>0.0314719846390442</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>95</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1549301559.786484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3079730916.875021</v>
+        <v>2663176715.758427</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1006671887293892</v>
+        <v>0.11810332924641</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03315241911745127</v>
+        <v>0.02682340365744216</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>82</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1539865490.69364</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2112549727.233488</v>
+        <v>1446980615.781516</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1041524660212219</v>
+        <v>0.1009524588620295</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03742191006538703</v>
+        <v>0.05532273843145832</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1056274954.429222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1468864802.718284</v>
+        <v>1312457925.460814</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1408550492181384</v>
+        <v>0.183543998036965</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04677222545210101</v>
+        <v>0.04076490010459843</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>734432444.4354237</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2810711317.118031</v>
+        <v>1813373176.173708</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08650575648350309</v>
+        <v>0.06982051770732652</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03294622036187707</v>
+        <v>0.04614626950388145</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>60</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1405355665.953458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3756178888.789605</v>
+        <v>4485099790.936808</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1387838385808183</v>
+        <v>0.09446110763748913</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03632076980359482</v>
+        <v>0.04049957950244838</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1878089460.778678</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1671758951.61453</v>
+        <v>1848939970.044819</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1288358164748506</v>
+        <v>0.1480897875914777</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03700114571908529</v>
+        <v>0.03960698889375692</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>835879431.4070573</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3120818651.079041</v>
+        <v>3084980873.697776</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09762046007323724</v>
+        <v>0.09182862150603097</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04751360302106839</v>
+        <v>0.03304998043742295</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>58</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1560409316.496785</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1488131515.387829</v>
+        <v>2101331302.031046</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09106898010258034</v>
+        <v>0.09991378351231216</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03082008404409523</v>
+        <v>0.041631082292128</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>744065799.2998946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4815312777.811944</v>
+        <v>3566528741.280139</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1262711685250487</v>
+        <v>0.1489033867557246</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02107155484008236</v>
+        <v>0.02499617510784055</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>78</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2407656510.834872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3744403978.931484</v>
+        <v>2595501939.783567</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1180454524037015</v>
+        <v>0.1129855957267728</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02527568713066072</v>
+        <v>0.02468466484551806</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>64</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1872202024.642014</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3438834108.552043</v>
+        <v>2422110957.815437</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1441925005526596</v>
+        <v>0.104709715533768</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03419809877401523</v>
+        <v>0.02190148270986778</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1719417072.055306</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4798830438.491666</v>
+        <v>4207921441.722541</v>
       </c>
       <c r="F100" t="n">
-        <v>0.175397203916087</v>
+        <v>0.1521509596940274</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01985483854186245</v>
+        <v>0.02070431060130062</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>74</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2399415353.692685</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2547245973.183181</v>
+        <v>3235742621.036565</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1940781955535865</v>
+        <v>0.1822756556474873</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0427496201735154</v>
+        <v>0.05417890500727118</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>97</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1273623015.847183</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_240.xlsx
+++ b/output/fit_clients/fit_round_240.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2018305209.292215</v>
+        <v>1521560453.234138</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1081269118423134</v>
+        <v>0.1007726284713451</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02872307765946385</v>
+        <v>0.03447589798102617</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2087971676.789212</v>
+        <v>2025946435.742812</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1767419766449636</v>
+        <v>0.1550390961989522</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0449662187773121</v>
+        <v>0.04348620020009521</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4528657008.692627</v>
+        <v>3277754986.575541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1006131575641509</v>
+        <v>0.1007093929183195</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02815742555582725</v>
+        <v>0.02326277263356867</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3203231066.055021</v>
+        <v>3039532012.520246</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1073710470697085</v>
+        <v>0.09523640469689125</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04571544518099215</v>
+        <v>0.04002556751148841</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2377395886.492667</v>
+        <v>2848197135.787822</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1259011727505915</v>
+        <v>0.1345945697112496</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04731210880694659</v>
+        <v>0.05025151765944006</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2121593124.898762</v>
+        <v>2095147422.689945</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06689281916257021</v>
+        <v>0.08555816496783901</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04201697220905733</v>
+        <v>0.02985138095008176</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2457409700.927384</v>
+        <v>3130960138.173869</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1431678299284044</v>
+        <v>0.1742606635803293</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02837412072397181</v>
+        <v>0.0255408268340636</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2203795113.220701</v>
+        <v>1628391251.621341</v>
       </c>
       <c r="F9" t="n">
-        <v>0.164560931340873</v>
+        <v>0.1292849955092903</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0310177777919676</v>
+        <v>0.03614119395682518</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3624230222.126369</v>
+        <v>4732463771.619352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1762797953984855</v>
+        <v>0.1777050005545117</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04734374685423441</v>
+        <v>0.03834925516684172</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4019873905.282447</v>
+        <v>2884711308.040116</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1673113030199099</v>
+        <v>0.1614348320318298</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03405057810664714</v>
+        <v>0.04745588290248598</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2263448945.389749</v>
+        <v>2472245017.072065</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1322392558979102</v>
+        <v>0.1349091342482704</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04060357864880843</v>
+        <v>0.04834536380086018</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5126914486.163661</v>
+        <v>4216486373.335542</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09213597793361678</v>
+        <v>0.07276721167314269</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02573204823031826</v>
+        <v>0.0230583990097985</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2964658143.17376</v>
+        <v>3081418764.356667</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1138422524407542</v>
+        <v>0.1374060712466229</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02934341321018837</v>
+        <v>0.03611079884242807</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1667045946.130245</v>
+        <v>1442606289.792348</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06992303366501448</v>
+        <v>0.1051318898764731</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0435016884398611</v>
+        <v>0.04412704595433341</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2038556413.957743</v>
+        <v>2447101581.675511</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1109779508201069</v>
+        <v>0.0726702728601082</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03531869133404014</v>
+        <v>0.04158907268899879</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3838980657.709602</v>
+        <v>3920983363.570597</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1177653865776955</v>
+        <v>0.1632760663961225</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03574375516458229</v>
+        <v>0.05230407659130134</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2802142983.833445</v>
+        <v>3780997332.044125</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1489374034573296</v>
+        <v>0.1438338269017568</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02934117626496097</v>
+        <v>0.02186074986771775</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>847574272.3563175</v>
+        <v>1347336373.084887</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1253170994173633</v>
+        <v>0.1716551091201599</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02197611971292985</v>
+        <v>0.01821300734463233</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2626451495.446405</v>
+        <v>2483813024.66208</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1017671908071027</v>
+        <v>0.1435517383269838</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02797196307599373</v>
+        <v>0.02798728841764542</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2086915944.822989</v>
+        <v>1995489494.882746</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06604007120450289</v>
+        <v>0.0770789386292165</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03098859640747664</v>
+        <v>0.03981113467896087</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3751460914.749852</v>
+        <v>2651644941.65589</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1397518490208961</v>
+        <v>0.1329211675945578</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05225771768849275</v>
+        <v>0.03840974411487608</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1117782922.140982</v>
+        <v>1053577818.020164</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1702220529731812</v>
+        <v>0.122935749380068</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03710067244248381</v>
+        <v>0.05428162736272627</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3838506992.859581</v>
+        <v>3938930061.472324</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1376476704263211</v>
+        <v>0.1360568312892763</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03085770429814677</v>
+        <v>0.02451278935420022</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1144732661.032713</v>
+        <v>1035731876.579245</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09654758454467592</v>
+        <v>0.1097522186282955</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0238886440318954</v>
+        <v>0.02206216814297187</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1455703472.384991</v>
+        <v>1073175032.026147</v>
       </c>
       <c r="F26" t="n">
-        <v>0.120308331213695</v>
+        <v>0.08700481551868712</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03054954642737462</v>
+        <v>0.02865726927058966</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4177315695.461276</v>
+        <v>3204666479.930057</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1134711408902452</v>
+        <v>0.09849558287101631</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01788838348794388</v>
+        <v>0.02430470159246308</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3617870724.531055</v>
+        <v>2694921377.489766</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1233958552677438</v>
+        <v>0.147666119546417</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04992936561559483</v>
+        <v>0.04645446734947827</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5176844775.683245</v>
+        <v>4882674813.185925</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1280355411529975</v>
+        <v>0.1222907509525999</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03393451478849182</v>
+        <v>0.03102209571325547</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2351009999.091292</v>
+        <v>2240106481.781231</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08519467995754859</v>
+        <v>0.105950253607809</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03092344833899007</v>
+        <v>0.02681774452995192</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1292068044.01243</v>
+        <v>1124517681.825772</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06849474462992534</v>
+        <v>0.08140026205854525</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03337356890719518</v>
+        <v>0.03264953567530973</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1817776083.978966</v>
+        <v>1470055129.483347</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1098732567221523</v>
+        <v>0.08816049499105422</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03053840114654501</v>
+        <v>0.02400832862101356</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2626591802.668119</v>
+        <v>2205871419.650754</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1913910681597061</v>
+        <v>0.1433039183067924</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04005199355727927</v>
+        <v>0.05572746106842537</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1176629723.871157</v>
+        <v>1409631926.193864</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07440780612726788</v>
+        <v>0.1068117088739823</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0195885026645965</v>
+        <v>0.02204112538248802</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1312813296.652516</v>
+        <v>1276501053.045448</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08102547413003634</v>
+        <v>0.1127814111047445</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03484578729248363</v>
+        <v>0.04126961202316303</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2520410847.211992</v>
+        <v>2979031213.042849</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1493031185302927</v>
+        <v>0.1089123396302727</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02363962688953221</v>
+        <v>0.01789113490613552</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2342297383.455276</v>
+        <v>1800732963.50939</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1001130005619039</v>
+        <v>0.09021883785309508</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02825802271731809</v>
+        <v>0.03798231066217522</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2071122927.726272</v>
+        <v>1918890149.224285</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1143320836837671</v>
+        <v>0.08030244687120899</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03739279680985241</v>
+        <v>0.03277510346905169</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1771253778.302994</v>
+        <v>1702417004.708863</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1369708687310427</v>
+        <v>0.1499657996456139</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02219423967751143</v>
+        <v>0.02421922996614765</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1718720560.637265</v>
+        <v>1359213294.141233</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1064562405746993</v>
+        <v>0.1003589110260389</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05799043421763781</v>
+        <v>0.05513724012224791</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2326332501.880335</v>
+        <v>2379317146.231215</v>
       </c>
       <c r="F41" t="n">
-        <v>0.111857823936564</v>
+        <v>0.1128237906086785</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03629172200967642</v>
+        <v>0.03699160435763284</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3637265400.245715</v>
+        <v>4025399127.91465</v>
       </c>
       <c r="F42" t="n">
-        <v>0.109997736701251</v>
+        <v>0.08443801501283753</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0318324808514559</v>
+        <v>0.03069598547242233</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2684192177.488711</v>
+        <v>2433693959.699785</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1680869371694823</v>
+        <v>0.1591150515080348</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02100948106111106</v>
+        <v>0.01667993880929585</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1922023966.934279</v>
+        <v>2301081473.78214</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08762475705463306</v>
+        <v>0.07834926569393832</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03314249504685587</v>
+        <v>0.02685902147656938</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1813377987.589368</v>
+        <v>2508735393.4095</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1876075950351368</v>
+        <v>0.1878458277596663</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03808831189945967</v>
+        <v>0.04594221174080115</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4698145919.513168</v>
+        <v>3888161895.228142</v>
       </c>
       <c r="F46" t="n">
-        <v>0.14863136451281</v>
+        <v>0.1329530719867458</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04497354751953194</v>
+        <v>0.05702047532613141</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3494891601.4683</v>
+        <v>5109185695.003004</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2037982395712979</v>
+        <v>0.1544481945506621</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05768106383660749</v>
+        <v>0.05767450883984906</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4042403818.994124</v>
+        <v>3862104427.481742</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07397370522816134</v>
+        <v>0.09644320604482398</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02532674267559292</v>
+        <v>0.03553783712488197</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1820130469.166349</v>
+        <v>1523540525.376068</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1799914160146916</v>
+        <v>0.1690608908640911</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03244989734524822</v>
+        <v>0.03366352054247421</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2710769921.237057</v>
+        <v>3740675296.208903</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1506596386480501</v>
+        <v>0.160597702440296</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04976887229282134</v>
+        <v>0.04193529798431598</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1098663984.006417</v>
+        <v>1455716428.744819</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1199475180871582</v>
+        <v>0.1524115506776368</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05230060786666613</v>
+        <v>0.0487086230473522</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3217349915.217833</v>
+        <v>4878371895.349315</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1314976801829187</v>
+        <v>0.1259878435820609</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05224402882630221</v>
+        <v>0.06000629037992798</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3698460369.478398</v>
+        <v>3698598793.06943</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1618020060156017</v>
+        <v>0.1542256294266095</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0263078737829924</v>
+        <v>0.03262147503935989</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3375232857.042968</v>
+        <v>4645386850.061616</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1564303086801853</v>
+        <v>0.1208412331928144</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04928379641400824</v>
+        <v>0.03835767640615861</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3776460194.034161</v>
+        <v>3402342971.082139</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2066857212609577</v>
+        <v>0.1934815127598361</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02312277355639633</v>
+        <v>0.02268622290600899</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1279188274.489394</v>
+        <v>1749852245.976395</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1242785651989196</v>
+        <v>0.1052821740907306</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05208616035412238</v>
+        <v>0.03629159087937905</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4140852458.202068</v>
+        <v>3195341301.986547</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1636659386428235</v>
+        <v>0.1210716201253444</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0240594142663556</v>
+        <v>0.02036586397325141</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1464643952.666788</v>
+        <v>1736739137.610801</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1960961664198874</v>
+        <v>0.1798177442035581</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0295928591539476</v>
+        <v>0.03724316776930173</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4379611872.210938</v>
+        <v>5046843985.409141</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1061691394664629</v>
+        <v>0.1105568551527401</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04405328017591068</v>
+        <v>0.04630867878228336</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3595739152.621744</v>
+        <v>2315515574.506037</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1451255441171205</v>
+        <v>0.1851397678176523</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02454261135629541</v>
+        <v>0.02540627457602795</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2174986840.653548</v>
+        <v>2741576386.393777</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1341526400377647</v>
+        <v>0.1372114296126276</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02500741698665572</v>
+        <v>0.02324473652592937</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1743861594.94447</v>
+        <v>2010221146.28901</v>
       </c>
       <c r="F62" t="n">
-        <v>0.147888536184442</v>
+        <v>0.1597457267022461</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04312931510911109</v>
+        <v>0.03410265600829607</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5087280264.224222</v>
+        <v>3943581494.200977</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1011171919819242</v>
+        <v>0.08313699521153825</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04315742131264681</v>
+        <v>0.04720473801639911</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5420228763.737641</v>
+        <v>4820431968.125438</v>
       </c>
       <c r="F64" t="n">
-        <v>0.174462962340441</v>
+        <v>0.1631512588195439</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02972947775037542</v>
+        <v>0.02379318694959237</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5944092703.789314</v>
+        <v>4328697869.086771</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1157296147298923</v>
+        <v>0.1356315140914608</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0275349453447656</v>
+        <v>0.02153780347225061</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5472255129.554955</v>
+        <v>5002181098.834092</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1067518333456664</v>
+        <v>0.1086206863838929</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03802172248236228</v>
+        <v>0.04899368530157682</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2200931856.208598</v>
+        <v>2901882811.916716</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09804153755477296</v>
+        <v>0.07510413540308142</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04149737938447601</v>
+        <v>0.03974788935697434</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5328243452.078971</v>
+        <v>3835156766.360643</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1494768430094982</v>
+        <v>0.1283752565827249</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03920830414387668</v>
+        <v>0.03201425381057288</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1794648678.035303</v>
+        <v>2037775977.831974</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1479951335795424</v>
+        <v>0.1415080010700834</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04016487916019711</v>
+        <v>0.05679427753235185</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2945314531.433589</v>
+        <v>2707811053.926198</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07695654554498384</v>
+        <v>0.06212820826808786</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0432957770703935</v>
+        <v>0.04813712210193737</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5100966658.68669</v>
+        <v>5579206388.871747</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1602917159018707</v>
+        <v>0.130372662632756</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0210412622904341</v>
+        <v>0.03234748450501817</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1466805715.110592</v>
+        <v>2095030803.171337</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1085046583839736</v>
+        <v>0.07118566583443589</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03692471000816797</v>
+        <v>0.04387581519847214</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2189184838.282212</v>
+        <v>2234540997.729066</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09601699814659788</v>
+        <v>0.09850429570193944</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03461953823998708</v>
+        <v>0.03998297944614919</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3241184226.819955</v>
+        <v>3558959017.077677</v>
       </c>
       <c r="F74" t="n">
-        <v>0.175311291040014</v>
+        <v>0.1520099569931166</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02428570777023837</v>
+        <v>0.02310473687254282</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1998525754.369907</v>
+        <v>1978375441.262969</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1411560268714978</v>
+        <v>0.1189047590350617</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02678908983584847</v>
+        <v>0.02379402624716982</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4611079706.314395</v>
+        <v>4468929157.108261</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1191768605959364</v>
+        <v>0.1197516141434538</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02909891639656337</v>
+        <v>0.03378165637037044</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1970809142.617678</v>
+        <v>1997443274.702698</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1520049391870353</v>
+        <v>0.163067776703915</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03132457203588696</v>
+        <v>0.02530558365605031</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4437387794.819011</v>
+        <v>4217882112.81516</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1040542918302539</v>
+        <v>0.08980345008126389</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0501697997152353</v>
+        <v>0.04597020877241656</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1255378848.921845</v>
+        <v>1456732901.781424</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1737555459214355</v>
+        <v>0.1700108755898363</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03559636815290858</v>
+        <v>0.03878153515495598</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4939073353.115237</v>
+        <v>3542127655.930354</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07386518589597692</v>
+        <v>0.1098814867209598</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03411326492779658</v>
+        <v>0.03604735917654943</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4629456995.42079</v>
+        <v>3235943207.542446</v>
       </c>
       <c r="F81" t="n">
-        <v>0.100702320938036</v>
+        <v>0.08589698300319022</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0252904006790047</v>
+        <v>0.0294462229794269</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5655851183.398966</v>
+        <v>5676076078.219635</v>
       </c>
       <c r="F82" t="n">
-        <v>0.20925376838627</v>
+        <v>0.179796418984712</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01924260285164002</v>
+        <v>0.02957520353235458</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2186215083.108198</v>
+        <v>1641475210.956706</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1395778094151986</v>
+        <v>0.1136179535032198</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03899870900053522</v>
+        <v>0.04501316903965256</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1847362163.781118</v>
+        <v>1952852535.943447</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0997172585333939</v>
+        <v>0.1066439483872581</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03399091115680019</v>
+        <v>0.03726124930856747</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3686406519.796391</v>
+        <v>3583160489.103707</v>
       </c>
       <c r="F85" t="n">
-        <v>0.170141520320142</v>
+        <v>0.1163793005000944</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03635521661667961</v>
+        <v>0.0427522802254578</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2071282065.580089</v>
+        <v>2437017119.583216</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1232388026887362</v>
+        <v>0.1208748494051748</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0232167000129907</v>
+        <v>0.02487312352740626</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1220373100.258202</v>
+        <v>1356905746.724379</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1353544520389481</v>
+        <v>0.1743573288856894</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03595307378054176</v>
+        <v>0.03356250644300773</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3120668544.872112</v>
+        <v>2946147371.857842</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1265680142243673</v>
+        <v>0.1475768043470102</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0314719846390442</v>
+        <v>0.03817291786283567</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2663176715.758427</v>
+        <v>2731640396.83004</v>
       </c>
       <c r="F89" t="n">
-        <v>0.11810332924641</v>
+        <v>0.1031151581967297</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02682340365744216</v>
+        <v>0.0351251462008523</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1446980615.781516</v>
+        <v>1891106229.101055</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1009524588620295</v>
+        <v>0.1361285767951976</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05532273843145832</v>
+        <v>0.04246181665916401</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1312457925.460814</v>
+        <v>1823085768.831851</v>
       </c>
       <c r="F91" t="n">
-        <v>0.183543998036965</v>
+        <v>0.1359158496820194</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04076490010459843</v>
+        <v>0.03949696723292349</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1813373176.173708</v>
+        <v>2377471791.416028</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06982051770732652</v>
+        <v>0.09071197164882981</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04614626950388145</v>
+        <v>0.03483802906357508</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4485099790.936808</v>
+        <v>4580382677.755245</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09446110763748913</v>
+        <v>0.08849315256677313</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04049957950244838</v>
+        <v>0.04206511527416344</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1848939970.044819</v>
+        <v>2392563178.237706</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1480897875914777</v>
+        <v>0.1609884026722632</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03960698889375692</v>
+        <v>0.03691764839897064</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3084980873.697776</v>
+        <v>2538787609.340124</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09182862150603097</v>
+        <v>0.1279939944967264</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03304998043742295</v>
+        <v>0.03700398775588216</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2101331302.031046</v>
+        <v>2079277101.783529</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09991378351231216</v>
+        <v>0.1232313043710099</v>
       </c>
       <c r="G96" t="n">
-        <v>0.041631082292128</v>
+        <v>0.03590519813561303</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3566528741.280139</v>
+        <v>5274482158.566187</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1489033867557246</v>
+        <v>0.1299822976171769</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02499617510784055</v>
+        <v>0.02405074047445848</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2595501939.783567</v>
+        <v>2728389590.559677</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1129855957267728</v>
+        <v>0.09711013599820961</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02468466484551806</v>
+        <v>0.02678025664182573</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2422110957.815437</v>
+        <v>2603972459.593982</v>
       </c>
       <c r="F99" t="n">
-        <v>0.104709715533768</v>
+        <v>0.1261641593219476</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02190148270986778</v>
+        <v>0.02306420394009792</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4207921441.722541</v>
+        <v>3902675646.027074</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1521509596940274</v>
+        <v>0.1506586058302653</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02070431060130062</v>
+        <v>0.02069728604990483</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3235742621.036565</v>
+        <v>2220295024.389832</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1822756556474873</v>
+        <v>0.16851553275804</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05417890500727118</v>
+        <v>0.05525285907987649</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_240.xlsx
+++ b/output/fit_clients/fit_round_240.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1521560453.234138</v>
+        <v>2115307917.570863</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1007726284713451</v>
+        <v>0.1129165767403767</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03447589798102617</v>
+        <v>0.04353262207197283</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2025946435.742812</v>
+        <v>2283006077.776978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1550390961989522</v>
+        <v>0.1335787458244221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04348620020009521</v>
+        <v>0.04642328885674262</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3277754986.575541</v>
+        <v>4657674407.779797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1007093929183195</v>
+        <v>0.1427068163865107</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02326277263356867</v>
+        <v>0.03149561916929848</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J4" t="n">
+        <v>239</v>
+      </c>
+      <c r="K4" t="n">
+        <v>103.8071851858526</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3039532012.520246</v>
+        <v>3204798741.945697</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09523640469689125</v>
+        <v>0.09640016412136689</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04002556751148841</v>
+        <v>0.03394301152780498</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>98</v>
+      </c>
+      <c r="J5" t="n">
+        <v>238</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2848197135.787822</v>
+        <v>2264564300.853926</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1345945697112496</v>
+        <v>0.1029659204320461</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05025151765944006</v>
+        <v>0.04362310759841398</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2095147422.689945</v>
+        <v>2207279234.232235</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08555816496783901</v>
+        <v>0.06400088920899009</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02985138095008176</v>
+        <v>0.04821810406517805</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3130960138.173869</v>
+        <v>3257173992.04902</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1742606635803293</v>
+        <v>0.2031724662268792</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0255408268340636</v>
+        <v>0.02412153882039265</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>234</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1628391251.621341</v>
+        <v>1434048909.068257</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1292849955092903</v>
+        <v>0.1641314503234785</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03614119395682518</v>
+        <v>0.02913921130712408</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4732463771.619352</v>
+        <v>4417713718.051466</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1777050005545117</v>
+        <v>0.1421590785107513</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03834925516684172</v>
+        <v>0.03409539935769117</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>219</v>
+      </c>
+      <c r="J10" t="n">
+        <v>240</v>
+      </c>
+      <c r="K10" t="n">
+        <v>110.1355394117251</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2884711308.040116</v>
+        <v>3387472580.551195</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1614348320318298</v>
+        <v>0.1541350625767411</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04745588290248598</v>
+        <v>0.03548288408046638</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>100</v>
+      </c>
+      <c r="J11" t="n">
+        <v>239</v>
+      </c>
+      <c r="K11" t="n">
+        <v>83.01410676217937</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2472245017.072065</v>
+        <v>3319493618.482467</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1349091342482704</v>
+        <v>0.1982309871916823</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04834536380086018</v>
+        <v>0.04137029173110167</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4216486373.335542</v>
+        <v>4168885701.745949</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07276721167314269</v>
+        <v>0.09617535561276803</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0230583990097985</v>
+        <v>0.02555610561039681</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>121</v>
+      </c>
+      <c r="J13" t="n">
+        <v>239</v>
+      </c>
+      <c r="K13" t="n">
+        <v>106.3275764037829</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3081418764.356667</v>
+        <v>3765105171.5031</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1374060712466229</v>
+        <v>0.1513218832568446</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03611079884242807</v>
+        <v>0.03246443854268007</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>47</v>
+      </c>
+      <c r="J14" t="n">
+        <v>239</v>
+      </c>
+      <c r="K14" t="n">
+        <v>100.6649792814789</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1442606289.792348</v>
+        <v>1718677035.201486</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1051318898764731</v>
+        <v>0.1052930558726156</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04412704595433341</v>
+        <v>0.03560268955201344</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2447101581.675511</v>
+        <v>1746119391.193151</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0726702728601082</v>
+        <v>0.08303578035766743</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04158907268899879</v>
+        <v>0.05113817860979424</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3920983363.570597</v>
+        <v>4173172309.359407</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1632760663961225</v>
+        <v>0.1707134722671265</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05230407659130134</v>
+        <v>0.03624077253845016</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>115</v>
+      </c>
+      <c r="J17" t="n">
+        <v>240</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3780997332.044125</v>
+        <v>3064559225.610685</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1438338269017568</v>
+        <v>0.1170982469877251</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02186074986771775</v>
+        <v>0.02468434320263686</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>233</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1347336373.084887</v>
+        <v>1016800318.408799</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1716551091201599</v>
+        <v>0.1349768306117144</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01821300734463233</v>
+        <v>0.02742785191187291</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2483813024.66208</v>
+        <v>2298206341.513905</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1435517383269838</v>
+        <v>0.1147186745043964</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02798728841764542</v>
+        <v>0.02357767030443177</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1995489494.882746</v>
+        <v>2640694812.651327</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0770789386292165</v>
+        <v>0.07501578113949978</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03981113467896087</v>
+        <v>0.04527302741517659</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2651644941.65589</v>
+        <v>3762031466.749076</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1329211675945578</v>
+        <v>0.09551644903070612</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03840974411487608</v>
+        <v>0.04175047486882816</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>62</v>
+      </c>
+      <c r="J22" t="n">
+        <v>239</v>
+      </c>
+      <c r="K22" t="n">
+        <v>88.77269583588676</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1053577818.020164</v>
+        <v>1262050216.251791</v>
       </c>
       <c r="F23" t="n">
-        <v>0.122935749380068</v>
+        <v>0.1518758169326488</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05428162736272627</v>
+        <v>0.04963715453756733</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3938930061.472324</v>
+        <v>2687346698.704334</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1360568312892763</v>
+        <v>0.1006525984820917</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02451278935420022</v>
+        <v>0.03546311061865787</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>73</v>
+      </c>
+      <c r="J24" t="n">
+        <v>238</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1035731876.579245</v>
+        <v>1044690603.14208</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1097522186282955</v>
+        <v>0.08511912549966305</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02206216814297187</v>
+        <v>0.0298162195610372</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1073175032.026147</v>
+        <v>1153336970.399462</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08700481551868712</v>
+        <v>0.1038966289419444</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02865726927058966</v>
+        <v>0.02439476313439288</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3204666479.930057</v>
+        <v>3407673994.866167</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09849558287101631</v>
+        <v>0.1145681088628933</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02430470159246308</v>
+        <v>0.02709807962888647</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>97</v>
+      </c>
+      <c r="J27" t="n">
+        <v>240</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2694921377.489766</v>
+        <v>3116222362.359922</v>
       </c>
       <c r="F28" t="n">
-        <v>0.147666119546417</v>
+        <v>0.1004179232485722</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04645446734947827</v>
+        <v>0.03259602392113856</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>49</v>
+      </c>
+      <c r="J28" t="n">
+        <v>237</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4882674813.185925</v>
+        <v>3713658065.753232</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1222907509525999</v>
+        <v>0.144737231811691</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03102209571325547</v>
+        <v>0.04455087867655943</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>229</v>
+      </c>
+      <c r="J29" t="n">
+        <v>239</v>
+      </c>
+      <c r="K29" t="n">
+        <v>98.37042429853059</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2240106481.781231</v>
+        <v>1893721334.947844</v>
       </c>
       <c r="F30" t="n">
-        <v>0.105950253607809</v>
+        <v>0.08590956335469455</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02681774452995192</v>
+        <v>0.02475100451039721</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1124517681.825772</v>
+        <v>1132329445.915523</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08140026205854525</v>
+        <v>0.07803229909061654</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03264953567530973</v>
+        <v>0.0388478034788334</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1470055129.483347</v>
+        <v>1856991297.027145</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08816049499105422</v>
+        <v>0.09970807832960667</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02400832862101356</v>
+        <v>0.03320755271613514</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2205871419.650754</v>
+        <v>2067429941.013577</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1433039183067924</v>
+        <v>0.1794539301202828</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05572746106842537</v>
+        <v>0.05386830234797512</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1409631926.193864</v>
+        <v>1182270076.984047</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1068117088739823</v>
+        <v>0.1172448163266737</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02204112538248802</v>
+        <v>0.0171185523135419</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1276501053.045448</v>
+        <v>1116667248.105523</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1127814111047445</v>
+        <v>0.0931695896641892</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04126961202316303</v>
+        <v>0.03855649408648151</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2979031213.042849</v>
+        <v>2807790879.416564</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1089123396302727</v>
+        <v>0.1290818512392619</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01789113490613552</v>
+        <v>0.02692471513527181</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1800732963.50939</v>
+        <v>2720776896.197777</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09021883785309508</v>
+        <v>0.07850220506251569</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03798231066217522</v>
+        <v>0.0278973605332987</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1918890149.224285</v>
+        <v>1829308135.492559</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08030244687120899</v>
+        <v>0.07968678291146304</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03277510346905169</v>
+        <v>0.0312913305806831</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1702417004.708863</v>
+        <v>1500234880.598577</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1499657996456139</v>
+        <v>0.1207237549448397</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02421922996614765</v>
+        <v>0.02113593331144462</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1359213294.141233</v>
+        <v>1265366637.503152</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1003589110260389</v>
+        <v>0.1374783797805072</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05513724012224791</v>
+        <v>0.04029318221491727</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2379317146.231215</v>
+        <v>2102728716.701552</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1128237906086785</v>
+        <v>0.1241976203681884</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03699160435763284</v>
+        <v>0.04526861296556707</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4025399127.91465</v>
+        <v>4167784305.530518</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08443801501283753</v>
+        <v>0.1253694821308301</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03069598547242233</v>
+        <v>0.03327293799364012</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>98</v>
+      </c>
+      <c r="J42" t="n">
+        <v>240</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2433693959.699785</v>
+        <v>2622466668.909935</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1591150515080348</v>
+        <v>0.1885991121139034</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01667993880929585</v>
+        <v>0.02356656070622733</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2301081473.78214</v>
+        <v>2159790768.982244</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07834926569393832</v>
+        <v>0.08244540898093906</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02685902147656938</v>
+        <v>0.03713610807510343</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2508735393.4095</v>
+        <v>1755971322.87194</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1878458277596663</v>
+        <v>0.1939514313601519</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04594221174080115</v>
+        <v>0.04423414118187606</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3888161895.228142</v>
+        <v>3880252560.569729</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1329530719867458</v>
+        <v>0.1177511497035172</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05702047532613141</v>
+        <v>0.04849961683588298</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>138</v>
+      </c>
+      <c r="J46" t="n">
+        <v>239</v>
+      </c>
+      <c r="K46" t="n">
+        <v>101.9790483499581</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5109185695.003004</v>
+        <v>3406365222.376401</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1544481945506621</v>
+        <v>0.192117514834697</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05767450883984906</v>
+        <v>0.05121625675333558</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>107</v>
+      </c>
+      <c r="J47" t="n">
+        <v>240</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3862104427.481742</v>
+        <v>4002720323.384939</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09644320604482398</v>
+        <v>0.09982273630494999</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03553783712488197</v>
+        <v>0.02563780141641524</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>119</v>
+      </c>
+      <c r="J48" t="n">
+        <v>240</v>
+      </c>
+      <c r="K48" t="n">
+        <v>110.9448225435024</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1523540525.376068</v>
+        <v>1474379954.219341</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1690608908640911</v>
+        <v>0.1923179428878085</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03366352054247421</v>
+        <v>0.03848141737243794</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3740675296.208903</v>
+        <v>3117885299.198874</v>
       </c>
       <c r="F50" t="n">
-        <v>0.160597702440296</v>
+        <v>0.1157072493997341</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04193529798431598</v>
+        <v>0.04072186694787575</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>78</v>
+      </c>
+      <c r="J50" t="n">
+        <v>237</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1455716428.744819</v>
+        <v>1244748973.064519</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1524115506776368</v>
+        <v>0.1276353711810621</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0487086230473522</v>
+        <v>0.04739962699051936</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4878371895.349315</v>
+        <v>3312137334.860815</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1259878435820609</v>
+        <v>0.1172968531157542</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06000629037992798</v>
+        <v>0.04664254243391223</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>156</v>
+      </c>
+      <c r="J52" t="n">
+        <v>238</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3698598793.06943</v>
+        <v>2304349753.353511</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1542256294266095</v>
+        <v>0.1810951473101509</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03262147503935989</v>
+        <v>0.03207824032870284</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4645386850.061616</v>
+        <v>4524948260.534176</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1208412331928144</v>
+        <v>0.1269779566141801</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03835767640615861</v>
+        <v>0.04279388237774488</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>127</v>
+      </c>
+      <c r="J54" t="n">
+        <v>240</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3402342971.082139</v>
+        <v>4892534536.206011</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1934815127598361</v>
+        <v>0.1666692394407508</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02268622290600899</v>
+        <v>0.0241817505144606</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>107</v>
+      </c>
+      <c r="J55" t="n">
+        <v>240</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1749852245.976395</v>
+        <v>1151484161.699267</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1052821740907306</v>
+        <v>0.1573476866972016</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03629159087937905</v>
+        <v>0.04654956603072833</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3195341301.986547</v>
+        <v>4295723017.625188</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1210716201253444</v>
+        <v>0.1297880077727779</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02036586397325141</v>
+        <v>0.02274475888156339</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>94</v>
+      </c>
+      <c r="J57" t="n">
+        <v>240</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1736739137.610801</v>
+        <v>1225753562.078443</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1798177442035581</v>
+        <v>0.1715404960914156</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03724316776930173</v>
+        <v>0.03605866014874463</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5046843985.409141</v>
+        <v>4472564668.776502</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1105568551527401</v>
+        <v>0.09175750162642862</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04630867878228336</v>
+        <v>0.04925165929650373</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>116</v>
+      </c>
+      <c r="J59" t="n">
+        <v>239</v>
+      </c>
+      <c r="K59" t="n">
+        <v>97.51304336063545</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2315515574.506037</v>
+        <v>3762761446.189945</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1851397678176523</v>
+        <v>0.1497922707010192</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02540627457602795</v>
+        <v>0.02335024540201305</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>240</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2741576386.393777</v>
+        <v>2953421125.376414</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1372114296126276</v>
+        <v>0.1805955178572695</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02324473652592937</v>
+        <v>0.03260611976951289</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2010221146.28901</v>
+        <v>1465839368.07067</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1597457267022461</v>
+        <v>0.1418935652470108</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03410265600829607</v>
+        <v>0.04175373632391968</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3943581494.200977</v>
+        <v>3993694369.404428</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08313699521153825</v>
+        <v>0.07101070180811374</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04720473801639911</v>
+        <v>0.04652315774640095</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>117</v>
+      </c>
+      <c r="J63" t="n">
+        <v>239</v>
+      </c>
+      <c r="K63" t="n">
+        <v>99.29576412114163</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4820431968.125438</v>
+        <v>3421900743.124629</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1631512588195439</v>
+        <v>0.184770927197963</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02379318694959237</v>
+        <v>0.03159738648713314</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>118</v>
+      </c>
+      <c r="J64" t="n">
+        <v>240</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4328697869.086771</v>
+        <v>3998286737.734779</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1356315140914608</v>
+        <v>0.13421666937567</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02153780347225061</v>
+        <v>0.01952543455101723</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>192</v>
+      </c>
+      <c r="J65" t="n">
+        <v>240</v>
+      </c>
+      <c r="K65" t="n">
+        <v>107.3409381025237</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5002181098.834092</v>
+        <v>5352626589.683427</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1086206863838929</v>
+        <v>0.1198597900648362</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04899368530157682</v>
+        <v>0.03087460479310088</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>118</v>
+      </c>
+      <c r="J66" t="n">
+        <v>240</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2901882811.916716</v>
+        <v>2446716521.059835</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07510413540308142</v>
+        <v>0.06978867010682986</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03974788935697434</v>
+        <v>0.04774681446087542</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>235</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3835156766.360643</v>
+        <v>4386564457.50595</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1283752565827249</v>
+        <v>0.1153795718972613</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03201425381057288</v>
+        <v>0.04555811472196317</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>121</v>
+      </c>
+      <c r="J68" t="n">
+        <v>240</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2037775977.831974</v>
+        <v>1925377191.785213</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1415080010700834</v>
+        <v>0.1243890514226029</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05679427753235185</v>
+        <v>0.05877918702006336</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2707811053.926198</v>
+        <v>3574480323.509089</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06212820826808786</v>
+        <v>0.08462649291727692</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04813712210193737</v>
+        <v>0.03058324868583103</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>37</v>
+      </c>
+      <c r="J70" t="n">
+        <v>240</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5579206388.871747</v>
+        <v>5203226652.685944</v>
       </c>
       <c r="F71" t="n">
-        <v>0.130372662632756</v>
+        <v>0.132644299881884</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03234748450501817</v>
+        <v>0.02419361581733298</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>181</v>
+      </c>
+      <c r="J71" t="n">
+        <v>240</v>
+      </c>
+      <c r="K71" t="n">
+        <v>109.9629186435022</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2095030803.171337</v>
+        <v>2011605554.162285</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07118566583443589</v>
+        <v>0.09647557530937023</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04387581519847214</v>
+        <v>0.04875405506744337</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2234540997.729066</v>
+        <v>2735457366.929015</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09850429570193944</v>
+        <v>0.08530052062672862</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03998297944614919</v>
+        <v>0.03998074212141647</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>233</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3558959017.077677</v>
+        <v>2687125786.587662</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1520099569931166</v>
+        <v>0.1469225658560952</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02310473687254282</v>
+        <v>0.03275832498390189</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>69</v>
+      </c>
+      <c r="J74" t="n">
+        <v>239</v>
+      </c>
+      <c r="K74" t="n">
+        <v>51.36221783999355</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1978375441.262969</v>
+        <v>1788953213.070787</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1189047590350617</v>
+        <v>0.1339389708589435</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02379402624716982</v>
+        <v>0.02283558629953389</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4468929157.108261</v>
+        <v>4385995711.795111</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1197516141434538</v>
+        <v>0.09802639396870814</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03378165637037044</v>
+        <v>0.03305258626441981</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>111</v>
+      </c>
+      <c r="J76" t="n">
+        <v>240</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1997443274.702698</v>
+        <v>2099199765.205088</v>
       </c>
       <c r="F77" t="n">
-        <v>0.163067776703915</v>
+        <v>0.1577068615683691</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02530558365605031</v>
+        <v>0.02099024995327923</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4217882112.81516</v>
+        <v>3166986285.212018</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08980345008126389</v>
+        <v>0.08621265998112476</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04597020877241656</v>
+        <v>0.05488725316043461</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>119</v>
+      </c>
+      <c r="J78" t="n">
+        <v>239</v>
+      </c>
+      <c r="K78" t="n">
+        <v>67.21479722272355</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1456732901.781424</v>
+        <v>1493004208.039585</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1700108755898363</v>
+        <v>0.1716233287139044</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03878153515495598</v>
+        <v>0.03971796846977705</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3542127655.930354</v>
+        <v>4784158339.26077</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1098814867209598</v>
+        <v>0.06982347326143491</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03604735917654943</v>
+        <v>0.02796557867981438</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>117</v>
+      </c>
+      <c r="J80" t="n">
+        <v>239</v>
+      </c>
+      <c r="K80" t="n">
+        <v>78.47896930380379</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3235943207.542446</v>
+        <v>3878912520.546861</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08589698300319022</v>
+        <v>0.09696806991902615</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0294462229794269</v>
+        <v>0.02895741793144706</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>110</v>
+      </c>
+      <c r="J81" t="n">
+        <v>240</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5676076078.219635</v>
+        <v>5254195797.282907</v>
       </c>
       <c r="F82" t="n">
-        <v>0.179796418984712</v>
+        <v>0.1810504357703447</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02957520353235458</v>
+        <v>0.02826917362867312</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>181</v>
+      </c>
+      <c r="J82" t="n">
+        <v>240</v>
+      </c>
+      <c r="K82" t="n">
+        <v>108.6055873239177</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1641475210.956706</v>
+        <v>2058568001.702509</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1136179535032198</v>
+        <v>0.1276665007199118</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04501316903965256</v>
+        <v>0.03429814644320506</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1952852535.943447</v>
+        <v>1901120291.048238</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1066439483872581</v>
+        <v>0.07476421247401045</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03726124930856747</v>
+        <v>0.04018531555520965</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3583160489.103707</v>
+        <v>3644417290.762261</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1163793005000944</v>
+        <v>0.1655452896460515</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0427522802254578</v>
+        <v>0.04736868371336956</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>33</v>
+      </c>
+      <c r="J85" t="n">
+        <v>239</v>
+      </c>
+      <c r="K85" t="n">
+        <v>100.3822051909064</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2437017119.583216</v>
+        <v>2535604561.717862</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1208748494051748</v>
+        <v>0.1503357508825333</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02487312352740626</v>
+        <v>0.01777118673384578</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1356905746.724379</v>
+        <v>953329957.2492783</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1743573288856894</v>
+        <v>0.1181466887554309</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03356250644300773</v>
+        <v>0.0408781217990386</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2946147371.857842</v>
+        <v>2328769112.172517</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1475768043470102</v>
+        <v>0.130994573265176</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03817291786283567</v>
+        <v>0.03454303691776883</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>238</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2731640396.83004</v>
+        <v>3064162685.479522</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1031151581967297</v>
+        <v>0.159248470860127</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0351251462008523</v>
+        <v>0.03556737208869367</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1891106229.101055</v>
+        <v>1927439800.778207</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1361285767951976</v>
+        <v>0.09465598800931406</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04246181665916401</v>
+        <v>0.04542884742571689</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1823085768.831851</v>
+        <v>1632684683.672879</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1359158496820194</v>
+        <v>0.1258567909557456</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03949696723292349</v>
+        <v>0.05852373037325666</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2377471791.416028</v>
+        <v>2627266716.4285</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09071197164882981</v>
+        <v>0.07193966385558907</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03483802906357508</v>
+        <v>0.03163246792779033</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4580382677.755245</v>
+        <v>3978811110.458643</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08849315256677313</v>
+        <v>0.140123241016987</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04206511527416344</v>
+        <v>0.04950266246957349</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>106</v>
+      </c>
+      <c r="J93" t="n">
+        <v>240</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2392563178.237706</v>
+        <v>1661858228.824583</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1609884026722632</v>
+        <v>0.149145356832293</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03691764839897064</v>
+        <v>0.03937828862287911</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2538787609.340124</v>
+        <v>2191129213.61124</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1279939944967264</v>
+        <v>0.1181879733990368</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03700398775588216</v>
+        <v>0.03462260472419228</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2079277101.783529</v>
+        <v>1987810942.645742</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1232313043710099</v>
+        <v>0.08775617128636705</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03590519813561303</v>
+        <v>0.04504656249987245</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5274482158.566187</v>
+        <v>5165029520.103292</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1299822976171769</v>
+        <v>0.1438184740112782</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02405074047445848</v>
+        <v>0.02307852886625945</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>116</v>
+      </c>
+      <c r="J97" t="n">
+        <v>239</v>
+      </c>
+      <c r="K97" t="n">
+        <v>105.4794827893527</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2728389590.559677</v>
+        <v>3823487187.86629</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09711013599820961</v>
+        <v>0.09134545429396281</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02678025664182573</v>
+        <v>0.02955166574322894</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>59</v>
+      </c>
+      <c r="J98" t="n">
+        <v>239</v>
+      </c>
+      <c r="K98" t="n">
+        <v>90.07523544097232</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2603972459.593982</v>
+        <v>2658855367.014432</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1261641593219476</v>
+        <v>0.128057541834491</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02306420394009792</v>
+        <v>0.02811273304911112</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3902675646.027074</v>
+        <v>3000775219.924791</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1506586058302653</v>
+        <v>0.1793201357084606</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02069728604990483</v>
+        <v>0.02777710398665792</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>100</v>
+      </c>
+      <c r="J100" t="n">
+        <v>237</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2220295024.389832</v>
+        <v>2485363456.591119</v>
       </c>
       <c r="F101" t="n">
-        <v>0.16851553275804</v>
+        <v>0.1983264570828887</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05525285907987649</v>
+        <v>0.05716336642137243</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
